--- a/Integer/Losowa/Losowa.xlsx
+++ b/Integer/Losowa/Losowa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ilośc elementów</t>
   </si>
@@ -35,12 +35,15 @@
   <si>
     <t>Selection Sort</t>
   </si>
+  <si>
+    <t>Czas [sekundy]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +51,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -65,12 +95,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1847,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B19" sqref="B19:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,280 +2041,293 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
         <v>50000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.02</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>7.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
         <v>60000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>15.3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.02</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>10.3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
         <v>70000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>21.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.03</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>9.4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>80000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.04</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>18.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>12.3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>90000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>35.1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.04</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>22.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>100000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>43.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.06</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>29</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>19.2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
         <v>110000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>52.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.05</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>34.200000000000003</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>24.6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>120000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>63.8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.06</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>40.9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>28.6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
         <v>130000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>73.8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.06</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>47.9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>31.4</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>140000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>87.3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>56.3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
         <v>150000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>100.7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.08</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>67</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>44.9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
         <v>160000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>117.9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.08</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>72.8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>52.2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
         <v>170000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>131</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.09</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>82.8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>59.8</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>180000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>147.1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.09</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>92.5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>71.5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
         <v>190000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>165.9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>108.4</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>82.2</v>
       </c>
     </row>
+    <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>